--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_4_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_4_35.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30444.73951963684</v>
+        <v>1919760.473541844</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30444.73951963684</v>
+        <v>1919760.473541844</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341662159.814122</v>
+        <v>52860677.14792106</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12108.30253320752</v>
+        <v>1169905.937668231</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23823.93464440161</v>
+        <v>2271860.84795925</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35539.56675559568</v>
+        <v>3373815.758250272</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48477.07182163142</v>
+        <v>4409563.705587106</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61414.57688766713</v>
+        <v>5445311.652923939</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74352.08195370284</v>
+        <v>6481059.600260769</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87289.58701973855</v>
+        <v>7516807.547597597</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100227.0920857743</v>
+        <v>8552555.494934425</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113164.5971518101</v>
+        <v>9588303.442271251</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125242.4916134655</v>
+        <v>10665552.97973414</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>137087.5296198702</v>
+        <v>11767507.89002516</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148932.5676262749</v>
+        <v>12869462.80031618</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160777.6056326796</v>
+        <v>13971417.71060721</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173727.3498617027</v>
+        <v>15006195.37995643</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187776.1475709665</v>
+        <v>15925358.51600287</v>
       </c>
     </row>
   </sheetData>
